--- a/p_arrs/p_arr_10_row_20_5_5_col_2_lp_3_sym.xlsx
+++ b/p_arrs/p_arr_10_row_20_5_5_col_2_lp_3_sym.xlsx
@@ -2646,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -2654,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -2670,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -2686,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -2694,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -2798,7 +2798,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
@@ -2806,7 +2806,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -2814,7 +2814,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
@@ -2822,7 +2822,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -2830,7 +2830,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -2838,7 +2838,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -2854,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
@@ -2862,7 +2862,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -2870,7 +2870,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
@@ -2918,7 +2918,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2926,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2966,7 +2966,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2974,7 +2974,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2982,7 +2982,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -2990,7 +2990,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
@@ -2998,7 +2998,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49">
@@ -3006,7 +3006,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
@@ -3014,7 +3014,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
@@ -3022,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
@@ -3030,7 +3030,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53">
@@ -3038,7 +3038,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54">
@@ -3046,7 +3046,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55">
@@ -3182,7 +3182,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72">
@@ -3190,7 +3190,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73">
@@ -3198,7 +3198,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
@@ -3222,7 +3222,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3254,7 +3254,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3262,7 +3262,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3270,7 +3270,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3302,7 +3302,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3310,7 +3310,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3318,7 +3318,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3494,7 +3494,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3502,7 +3502,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3510,7 +3510,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3542,7 +3542,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3550,7 +3550,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3558,7 +3558,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3590,7 +3590,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3598,7 +3598,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3606,7 +3606,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3638,7 +3638,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="129">
@@ -3646,7 +3646,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130">
@@ -3654,7 +3654,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="131">
@@ -3662,7 +3662,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="132">
@@ -3670,7 +3670,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="133">
@@ -3678,7 +3678,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="134">
@@ -3686,7 +3686,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="135">
@@ -3694,7 +3694,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="136">
@@ -3702,7 +3702,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="137">
@@ -3710,7 +3710,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="138">
@@ -3782,7 +3782,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3790,7 +3790,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3798,7 +3798,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3814,7 +3814,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="151">
@@ -3822,7 +3822,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152">
@@ -3862,7 +3862,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="157">
@@ -3870,7 +3870,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="158">
@@ -3934,7 +3934,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3942,7 +3942,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3990,7 +3990,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="173">
@@ -3998,7 +3998,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="174">
@@ -4006,7 +4006,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="175">
@@ -4014,7 +4014,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="176">
@@ -4022,7 +4022,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="177">
@@ -4030,7 +4030,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="178">
@@ -4038,7 +4038,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="179">
@@ -4046,7 +4046,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="180">
@@ -4054,7 +4054,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="181">
@@ -4062,7 +4062,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="182">
@@ -4086,7 +4086,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4118,7 +4118,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4126,7 +4126,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4134,7 +4134,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4142,7 +4142,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4166,7 +4166,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4198,7 +4198,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="199">
@@ -4206,7 +4206,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="200">
@@ -4214,7 +4214,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="201">
@@ -4238,7 +4238,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="204">
@@ -4246,7 +4246,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="205">
@@ -4254,7 +4254,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="206">
@@ -4358,7 +4358,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4390,7 +4390,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="223">
@@ -4398,7 +4398,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="224">
@@ -4422,7 +4422,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4430,7 +4430,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4454,7 +4454,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4462,7 +4462,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -4470,7 +4470,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4478,7 +4478,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4486,7 +4486,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -4502,7 +4502,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4510,7 +4510,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4518,7 +4518,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -4526,7 +4526,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -4566,7 +4566,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -4646,7 +4646,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -4654,7 +4654,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -4678,7 +4678,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="259">
@@ -4686,7 +4686,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="260">
@@ -4742,7 +4742,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -4750,7 +4750,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -4758,7 +4758,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4766,7 +4766,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -4774,7 +4774,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -4790,7 +4790,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -4798,7 +4798,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -4806,7 +4806,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -4814,7 +4814,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -4822,7 +4822,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -4830,7 +4830,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="278">
@@ -4838,7 +4838,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="279">
@@ -4870,7 +4870,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="283">
@@ -4878,7 +4878,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="284">
@@ -4886,7 +4886,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="285">
@@ -4894,7 +4894,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="286">
@@ -4902,7 +4902,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="287">
@@ -4910,7 +4910,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="288">
@@ -4918,7 +4918,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="289">
@@ -4934,7 +4934,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4942,7 +4942,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4950,7 +4950,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4958,7 +4958,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4982,7 +4982,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4990,7 +4990,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -5022,7 +5022,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="302">
@@ -5070,7 +5070,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="308">
@@ -5102,7 +5102,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -5110,7 +5110,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5134,7 +5134,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -5142,7 +5142,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -5150,7 +5150,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -5158,7 +5158,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -5182,7 +5182,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="322">
@@ -5190,7 +5190,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="323">
@@ -5198,7 +5198,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="324">
@@ -5206,7 +5206,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="325">
@@ -5214,7 +5214,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="326">
@@ -5222,7 +5222,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="327">
@@ -5254,7 +5254,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="331">
@@ -5262,7 +5262,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="332">
@@ -5286,7 +5286,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5294,7 +5294,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5302,7 +5302,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -5318,7 +5318,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -5326,7 +5326,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -5334,7 +5334,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -5342,7 +5342,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -5350,7 +5350,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5406,7 +5406,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="350">
@@ -5414,7 +5414,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="351">
@@ -5526,7 +5526,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5534,7 +5534,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5598,7 +5598,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="374">
@@ -5606,7 +5606,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -5614,7 +5614,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -5622,7 +5622,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -5630,7 +5630,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5638,7 +5638,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -5646,7 +5646,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5654,7 +5654,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -5662,7 +5662,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -5670,7 +5670,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5678,7 +5678,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -5686,7 +5686,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -5694,7 +5694,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -5702,7 +5702,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="387">
@@ -5766,7 +5766,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -5774,7 +5774,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -5886,7 +5886,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="410">
@@ -5894,7 +5894,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="411">
@@ -5950,7 +5950,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -5958,7 +5958,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5966,7 +5966,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5974,7 +5974,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -5982,7 +5982,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -5998,7 +5998,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -6006,7 +6006,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -6014,7 +6014,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -6038,7 +6038,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="429">
@@ -6046,7 +6046,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="430">
@@ -6078,7 +6078,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="434">
@@ -6086,7 +6086,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="435">
@@ -6094,7 +6094,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="436">
@@ -6102,7 +6102,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="437">
@@ -6110,7 +6110,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="438">
@@ -6118,7 +6118,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="439">
@@ -6142,7 +6142,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6150,7 +6150,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6158,7 +6158,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -6166,7 +6166,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -6190,7 +6190,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -6198,7 +6198,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -6230,7 +6230,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="453">
@@ -6278,7 +6278,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="459">
@@ -6310,7 +6310,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6318,7 +6318,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -6342,7 +6342,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -6350,7 +6350,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -6358,7 +6358,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -6366,7 +6366,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -6382,7 +6382,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="472">
@@ -6390,7 +6390,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="473">
@@ -6398,7 +6398,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="474">
@@ -6406,7 +6406,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="475">
@@ -6414,7 +6414,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="476">
@@ -6422,7 +6422,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="477">
@@ -6430,7 +6430,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="478">
@@ -6462,7 +6462,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="482">
@@ -6470,7 +6470,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="483">
@@ -6478,7 +6478,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -6486,7 +6486,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -6494,7 +6494,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -6502,7 +6502,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -6510,7 +6510,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -6526,7 +6526,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -6534,7 +6534,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -6542,7 +6542,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6550,7 +6550,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -6558,7 +6558,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -6614,7 +6614,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="501">
@@ -6622,7 +6622,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="502">
@@ -6646,7 +6646,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -6654,7 +6654,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -6734,7 +6734,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -6774,7 +6774,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -6782,7 +6782,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -6790,7 +6790,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -6798,7 +6798,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -6814,7 +6814,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -6822,7 +6822,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -6830,7 +6830,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -6838,7 +6838,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -6846,7 +6846,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -6870,7 +6870,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -6878,7 +6878,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -6902,7 +6902,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="537">
@@ -6910,7 +6910,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="538">
@@ -6942,7 +6942,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7046,7 +7046,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="555">
@@ -7054,7 +7054,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="556">
@@ -7062,7 +7062,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="557">
@@ -7086,7 +7086,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="560">
@@ -7094,7 +7094,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="561">
@@ -7102,7 +7102,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="562">
@@ -7134,7 +7134,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -7158,7 +7158,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -7166,7 +7166,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -7174,7 +7174,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -7182,7 +7182,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -7214,7 +7214,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -7238,7 +7238,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="579">
@@ -7246,7 +7246,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="580">
@@ -7254,7 +7254,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="581">
@@ -7262,7 +7262,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="582">
@@ -7270,7 +7270,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="583">
@@ -7278,7 +7278,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="584">
@@ -7286,7 +7286,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="585">
@@ -7294,7 +7294,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="586">
@@ -7302,7 +7302,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="587">
@@ -7310,7 +7310,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="588">
@@ -7358,7 +7358,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -7366,7 +7366,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -7430,7 +7430,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="603">
@@ -7438,7 +7438,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="604">
@@ -7478,7 +7478,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="609">
@@ -7486,7 +7486,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="610">
@@ -7502,7 +7502,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -7510,7 +7510,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -7518,7 +7518,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -7590,7 +7590,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="623">
@@ -7598,7 +7598,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="624">
@@ -7606,7 +7606,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="625">
@@ -7614,7 +7614,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="626">
@@ -7622,7 +7622,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="627">
@@ -7630,7 +7630,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="628">
@@ -7638,7 +7638,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="629">
@@ -7646,7 +7646,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="630">
@@ -7654,7 +7654,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="631">
@@ -7662,7 +7662,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="632">
@@ -7694,7 +7694,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -7702,7 +7702,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -7710,7 +7710,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -7742,7 +7742,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -7750,7 +7750,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -7758,7 +7758,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -7790,7 +7790,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -7798,7 +7798,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -7806,7 +7806,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -7982,7 +7982,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -7990,7 +7990,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -7998,7 +7998,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -8030,7 +8030,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -8038,7 +8038,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -8046,7 +8046,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -8078,7 +8078,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -8102,7 +8102,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="687">
@@ -8110,7 +8110,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="688">
@@ -8118,7 +8118,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="689">
@@ -8254,7 +8254,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="706">
@@ -8262,7 +8262,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="707">
@@ -8270,7 +8270,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="708">
@@ -8278,7 +8278,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="709">
@@ -8286,7 +8286,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="710">
@@ -8294,7 +8294,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="711">
@@ -8302,7 +8302,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="712">
@@ -8310,7 +8310,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="713">
@@ -8318,7 +8318,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="714">
@@ -8326,7 +8326,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -8334,7 +8334,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -8374,7 +8374,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -8382,7 +8382,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -8430,7 +8430,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="728">
@@ -8438,7 +8438,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="729">
@@ -8446,7 +8446,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="730">
@@ -8454,7 +8454,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="731">
@@ -8462,7 +8462,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="732">
@@ -8470,7 +8470,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="733">
@@ -8478,7 +8478,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="734">
@@ -8486,7 +8486,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="735">
@@ -8494,7 +8494,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="736">
@@ -8502,7 +8502,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="737">
@@ -8606,7 +8606,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="751">
@@ -8630,7 +8630,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="753">
@@ -8638,7 +8638,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="754">
@@ -8646,7 +8646,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="755">
@@ -8654,7 +8654,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="756">
